--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Orders/OrderChangesReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Orders/OrderChangesReport.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sem\Documents\Vodovoz\repo\vodovoz_01\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B09F70-0815-49FC-BADA-C2B671038780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913ED6D-6CAA-4F53-87AA-910B0C274F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="12585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Rows">Лист1!$A$9:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -227,22 +228,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,17 +375,16 @@
   <dimension ref="A1:AMG10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="25.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="2" customWidth="1"/>
+    <col min="4" max="8" width="12.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="2" customWidth="1"/>
     <col min="10" max="13" width="20.83203125" style="2" customWidth="1"/>
     <col min="14" max="1016" width="10.6640625" style="2"/>
     <col min="1017" max="1017" width="14.83203125" style="3" customWidth="1"/>
@@ -393,21 +393,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1021" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:1021" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -425,71 +425,71 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:1021" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:1021" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:1021" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:1021" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -554,10 +554,10 @@
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -582,17 +582,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1021" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1021" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="L3:M5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>